--- a/data/Etat des opérations Boundou-Mai 2025.xlsx
+++ b/data/Etat des opérations Boundou-Mai 2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Procasef_BETPLUS\Application\DashBoard\Dashnoard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72690913-EB11-4032-88B9-29005BEC8424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ABCE94-DA64-4099-924F-6DE2D2B1B92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{FC69C636-FFFD-470E-A9F7-FC7A74BE96B2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
   <si>
     <t>Région</t>
   </si>
@@ -42,12 +42,6 @@
     <t>Gabou</t>
   </si>
   <si>
-    <t>• Levés topo et enquetes en cours
-• Affichage public (pas encore)
-• Réunion du CTASF (pas encore)
-• Délibération (pas encore)</t>
-  </si>
-  <si>
     <t>Moudery</t>
   </si>
   <si>
@@ -96,12 +90,6 @@
     <t>Dimboli</t>
   </si>
   <si>
-    <t>• Levés topo et enquetes complétés
-• Affichage public (pas encore, l'URM à éclaircir la resolution et la suite)
-• Réunion du CTASF (pas encore)
-• Délibération (pas encore)</t>
-  </si>
-  <si>
     <t>Médina Baffé</t>
   </si>
   <si>
@@ -154,12 +142,6 @@
   </si>
   <si>
     <t>• Levés topo et enquetes en cours</t>
-  </si>
-  <si>
-    <t>• Levés topo et enquetes complétés (le Village de Djimbé à compléter)
-• Affichage public (en cours)
-• Réunion du CTASF (pas encore)
-• Délibération (pas encore)</t>
   </si>
   <si>
     <t>• Levés topo et enquetes (complétés) à 50%
@@ -175,12 +157,6 @@
   </si>
   <si>
     <t>• Levés topo et enquetes complétés
-• Affichage public (complété)
-• Réunion du CTASF (à programmer pour la semaine du 12 Mai 2025)
-• Délibération (à programmer pou la semaine du 19 Mai 2025)</t>
-  </si>
-  <si>
-    <t>• Levés topo et enquetes complétés
 • Affichage public (complétés)
 • Réunion du CTASF ((complété))-(certaines parcelles pas obtenues les NICAD)
 • Délibération ((complété))</t>
@@ -190,6 +166,42 @@
 • Affichage public/phase2 (complété)
 • Réunion du CTASF/phase2 (complété)
 • Délibération/phase2 (complété)</t>
+  </si>
+  <si>
+    <t>lundi 19 mai 2025</t>
+  </si>
+  <si>
+    <t>vendredi 23 Mai 2025</t>
+  </si>
+  <si>
+    <t>Inventaires fonciers à partir du 23 Mai 2025</t>
+  </si>
+  <si>
+    <t>Inventaires fonciers à partir du 19 Mai 2025</t>
+  </si>
+  <si>
+    <t>• Levés topo et enquetes complétés (le Village de Djimbé à compléter)
+• Affichage public ( complétés)
+• Réunion du CTASF (pas encore)
+• Délibération (pas encore)</t>
+  </si>
+  <si>
+    <t>• Levés topo et enquetes  complétés
+• Affichage public (pas encore)
+• Réunion du CTASF (pas encore)
+• Délibération (pas encore)</t>
+  </si>
+  <si>
+    <t>• Levés topo et enquetes complétés
+• Affichage public (complété)
+• Réunion du CTASF (complété)
+• Délibération (complété)</t>
+  </si>
+  <si>
+    <t>• Levés topo et enquetes complétés
+• Affichage public (complété)
+• Réunion du CTASF (pas encore)
+• Délibération (pas encore)</t>
   </si>
 </sst>
 </file>
@@ -645,7 +657,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -667,24 +679,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -693,7 +705,7 @@
         <v>45726</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" s="3">
         <v>45754</v>
@@ -702,12 +714,12 @@
         <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>4</v>
@@ -716,7 +728,7 @@
         <v>45769</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3">
         <v>45754</v>
@@ -725,143 +737,147 @@
         <v>3</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="D4" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E4" s="3">
         <v>45754</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E5" s="3">
         <v>45754</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" s="3">
         <v>45754</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="3">
         <v>45754</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="11">
         <v>45631</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3">
         <v>45754</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="11">
         <v>45634</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3">
         <v>45754</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="11">
         <v>45514</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" s="3">
         <v>45754</v>
@@ -870,100 +886,100 @@
         <v>3</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="11">
         <v>45720</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" s="4">
         <v>45742</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C12" s="11">
         <v>45754</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" s="7">
         <v>45772</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="2"/>
       <c r="E13" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="11">
         <v>45779</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E14" s="7">
         <v>45808</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="2"/>
@@ -971,33 +987,39 @@
         <v>45852</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="E16" s="7">
         <v>45880</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="2"/>
@@ -1005,31 +1027,31 @@
         <v>45902</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="11">
         <v>45635</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" s="4">
         <v>45708</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
